--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollTel.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollTel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377B404F-F338-47AD-A57E-2A0C51BEA9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4B8937-F98C-4337-8203-06561B561972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -316,13 +316,21 @@
   <si>
     <t xml:space="preserve">TelDate&gt;= , AND TelDate&lt;= ,AND CaseCode= ,AND CustNo= </t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=借款人 2=保證人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=本人 2=親屬 3=朋友 4=其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -400,6 +408,13 @@
       <color theme="1"/>
       <name val="思源宋體"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -486,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,6 +584,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,7 +934,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1176,7 +1197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1192,8 +1213,11 @@
       <c r="E17" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1209,8 +1233,11 @@
       <c r="E18" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -1227,7 +1254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:7">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -1244,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:7">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1261,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:7">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1278,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:7">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -1295,7 +1322,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:7">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -1312,7 +1339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:7">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -1327,7 +1354,7 @@
       </c>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:7">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -1344,7 +1371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:7">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -1359,7 +1386,7 @@
       </c>
       <c r="E27" s="23"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7">
       <c r="A28" s="19">
         <v>20</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollTel.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollTel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4B8937-F98C-4337-8203-06561B561972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07B8A5D-93D2-4E88-96AE-F65127465926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,10 +306,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2021/8/18 已與舜文確認只需填入時間此欄位由6碼改成4碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TelDate&gt;= , AND TelDate&lt;= ,AND CaseCode= ,AND CustNo= ,AND FacmNo= ,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -323,6 +319,10 @@
   </si>
   <si>
     <t>1=本人 2=親屬 3=朋友 4=其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/8/18 已與舜雯確認只需填入時間此欄位由6碼改成4碼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -574,6 +574,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -584,12 +590,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -934,7 +934,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -949,10 +949,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
@@ -964,8 +964,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -977,10 +977,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="48.6">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="12" t="s">
         <v>55</v>
       </c>
@@ -992,10 +992,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1003,10 +1003,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1014,10 +1014,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1025,10 +1025,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1194,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1213,8 +1213,8 @@
       <c r="E17" s="23">
         <v>1</v>
       </c>
-      <c r="G17" s="28" t="s">
-        <v>78</v>
+      <c r="G17" s="24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1233,8 +1233,8 @@
       <c r="E18" s="23">
         <v>1</v>
       </c>
-      <c r="G18" s="29" t="s">
-        <v>79</v>
+      <c r="G18" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1452,7 +1452,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>67</v>
@@ -1474,7 +1474,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>67</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollTel.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollTel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07B8A5D-93D2-4E88-96AE-F65127465926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82862DC-8574-436E-8C2B-8D954764FD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -323,6 +323,26 @@
   </si>
   <si>
     <t>2021/8/18 已與舜雯確認只需填入時間此欄位由6碼改成4碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecvrNote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接話人備註</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/8/23新增,舊資料由RECEIVE_PERSONNAME轉入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊資料由PAID_DATE轉入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,7 +438,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +448,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,10 +543,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -532,9 +558,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -547,9 +570,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,6 +598,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,9 +640,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -651,9 +680,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -686,26 +715,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -738,26 +750,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -931,28 +926,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.109375" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
@@ -963,79 +958,79 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="48.6">
-      <c r="A3" s="28" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="26" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="28" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="26" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="26" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1054,352 +1049,375 @@
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="19">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="19">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="19">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="19">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="19">
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="19">
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="19">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="19">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <v>4</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="19">
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
         <v>9</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>1</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="19">
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <v>1</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="19">
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
         <v>11</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="19">
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="19">
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="19">
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
         <v>14</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="19">
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="21">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="19">
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
         <v>16</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="21">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="19">
+      <c r="G24" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
         <v>17</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="21">
+        <v>50</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
+        <v>18</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="19">
-        <v>18</v>
-      </c>
-      <c r="B26" s="20" t="s">
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
+        <v>19</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C27" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D27" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E27" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="19">
-        <v>19</v>
-      </c>
-      <c r="B27" s="20" t="s">
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
+        <v>20</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="23"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="19">
-        <v>20</v>
-      </c>
-      <c r="B28" s="20" t="s">
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>21</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C29" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D29" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E29" s="21">
         <v>6</v>
       </c>
     </row>
@@ -1428,7 +1446,7 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -1436,7 +1454,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1447,7 +1465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
@@ -1458,7 +1476,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1469,7 +1487,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -1480,7 +1498,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollTel.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/CollTel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82862DC-8574-436E-8C2B-8D954764FD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36CBBB4-0DE4-4A05-A0B7-7F09D924A708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>建檔人員</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -170,10 +166,6 @@
   </si>
   <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -344,6 +336,9 @@
   <si>
     <t>舊資料由PAID_DATE轉入</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -929,7 +924,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -977,7 +972,7 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1058,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>21</v>
@@ -1075,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>22</v>
@@ -1092,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>23</v>
@@ -1109,10 +1104,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>35</v>
@@ -1129,7 +1124,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>31</v>
@@ -1146,7 +1141,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>31</v>
@@ -1160,7 +1155,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>24</v>
@@ -1177,7 +1172,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>25</v>
@@ -1189,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
@@ -1197,7 +1192,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>26</v>
@@ -1209,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
@@ -1217,7 +1212,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>27</v>
@@ -1229,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
@@ -1237,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>28</v>
@@ -1254,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>28</v>
@@ -1271,7 +1266,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>28</v>
@@ -1288,10 +1283,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>31</v>
@@ -1311,7 +1306,7 @@
         <v>29</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="21">
         <v>500</v>
@@ -1322,10 +1317,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>35</v>
@@ -1334,7 +1329,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
@@ -1342,19 +1337,19 @@
         <v>17</v>
       </c>
       <c r="B25" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="E25" s="21">
         <v>50</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
@@ -1362,13 +1357,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E26" s="21"/>
     </row>
@@ -1377,13 +1372,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="E27" s="21">
         <v>6</v>
@@ -1394,13 +1389,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E28" s="21"/>
     </row>
@@ -1409,13 +1404,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E29" s="21">
         <v>6</v>
@@ -1467,46 +1462,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
